--- a/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
+++ b/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CG_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F098E10-937D-B44D-8EEF-748A539687B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5100DA-C4C6-094A-9B18-5DDB0084130E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-14620" windowWidth="16220" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>kleding</t>
   </si>
@@ -34,9 +34,6 @@
     <t>niet onder 20 01 33 vallende batterijen en accus</t>
   </si>
   <si>
-    <t>niet onder 20 01 21 en 20 01 23 vallende afgedankte elektrische en elektronische apparatuur die gevaarlijke onderdelen (6) bevat</t>
-  </si>
-  <si>
     <t>niet onder 20 01 21, 20 01 23 en 20 01 35 vallende afgedankte elektrische en elektronische apparatuur</t>
   </si>
   <si>
@@ -53,6 +50,87 @@
   </si>
   <si>
     <t>Haz</t>
+  </si>
+  <si>
+    <t>200101</t>
+  </si>
+  <si>
+    <t>papier en karton</t>
+  </si>
+  <si>
+    <t>200102</t>
+  </si>
+  <si>
+    <t>glas</t>
+  </si>
+  <si>
+    <t>200108</t>
+  </si>
+  <si>
+    <t>biologisch afbreekbaar keuken- en kantineafval</t>
+  </si>
+  <si>
+    <t>200110</t>
+  </si>
+  <si>
+    <t>200111</t>
+  </si>
+  <si>
+    <t>200133</t>
+  </si>
+  <si>
+    <t>200134</t>
+  </si>
+  <si>
+    <t>200135</t>
+  </si>
+  <si>
+    <t>200136</t>
+  </si>
+  <si>
+    <t>200139</t>
+  </si>
+  <si>
+    <t>kunststoffen</t>
+  </si>
+  <si>
+    <t>200140</t>
+  </si>
+  <si>
+    <t>metalen</t>
+  </si>
+  <si>
+    <t>200201</t>
+  </si>
+  <si>
+    <t>biologisch afbreekbaar afval</t>
+  </si>
+  <si>
+    <t>200202</t>
+  </si>
+  <si>
+    <t>grond en stenen</t>
+  </si>
+  <si>
+    <t>200301</t>
+  </si>
+  <si>
+    <t>gemengd stedelijk afval</t>
+  </si>
+  <si>
+    <t>200302</t>
+  </si>
+  <si>
+    <t>marktafval</t>
+  </si>
+  <si>
+    <t>200307</t>
+  </si>
+  <si>
+    <t>grofvuil</t>
+  </si>
+  <si>
+    <t>niet onder 20 01 21 en 20 01 23 vallende afgedankte elektrische en elektronische apparatuur die Hazardouse onderdelen (6) bevat</t>
   </si>
 </sst>
 </file>
@@ -111,10 +189,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,89 +545,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>200110</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>200111</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>200133</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>200135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>200136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
+++ b/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CG_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5100DA-C4C6-094A-9B18-5DDB0084130E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F097F58-811F-E04A-9A16-7D49CB1AE5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-14620" windowWidth="16220" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>kleding</t>
   </si>
@@ -131,6 +131,60 @@
   </si>
   <si>
     <t>niet onder 20 01 21 en 20 01 23 vallende afgedankte elektrische en elektronische apparatuur die Hazardouse onderdelen (6) bevat</t>
+  </si>
+  <si>
+    <t>040102</t>
+  </si>
+  <si>
+    <t>loogafval</t>
+  </si>
+  <si>
+    <t>040106</t>
+  </si>
+  <si>
+    <t>chroomhoudend slib, met name van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>040109</t>
+  </si>
+  <si>
+    <t>afval van bewerking en afwerking</t>
+  </si>
+  <si>
+    <t>040209</t>
+  </si>
+  <si>
+    <t>afval van composietmaterialen (geïmpregneerde textiel, elastomeren, plastomeren)</t>
+  </si>
+  <si>
+    <t>040214</t>
+  </si>
+  <si>
+    <t>afval van afwerking dat organische oplosmiddelen bevat</t>
+  </si>
+  <si>
+    <t>040216</t>
+  </si>
+  <si>
+    <t>040219</t>
+  </si>
+  <si>
+    <t>040220</t>
+  </si>
+  <si>
+    <t>niet onder 04 02 19 vallend slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>040222</t>
+  </si>
+  <si>
+    <t>afval van verwerkte textielvezels</t>
+  </si>
+  <si>
+    <t>kleurstoffen en pigmenten die Hazardouse stoffen bevatten</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse dat Hazardouse stoffen bevat</t>
   </si>
 </sst>
 </file>
@@ -189,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,6 +260,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,7 +671,7 @@
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -618,7 +682,7 @@
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -629,7 +693,7 @@
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -640,7 +704,7 @@
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -651,7 +715,7 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -662,7 +726,7 @@
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -740,6 +804,105 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
+++ b/Public_data/Input_CG_part1/EURAL_codes_CG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CG_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F097F58-811F-E04A-9A16-7D49CB1AE5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D3A9AE-E440-3341-950C-EC70F4E0E0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20420" yWindow="-19960" windowWidth="10000" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,6 @@
     <t>biologisch afbreekbaar afval</t>
   </si>
   <si>
-    <t>200202</t>
-  </si>
-  <si>
-    <t>grond en stenen</t>
-  </si>
-  <si>
     <t>200301</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>slib van afvalwaterbehandeling ter plaatse dat Hazardouse stoffen bevat</t>
+  </si>
+  <si>
+    <t>200123</t>
+  </si>
+  <si>
+    <t>afgedankte apparatuur die chloorfluorkoolwaterstoffen bevat</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,10 +633,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -677,21 +677,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -699,32 +699,32 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -787,32 +787,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -820,21 +820,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -853,43 +853,43 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
